--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1508355.244249968</v>
+        <v>1525000.363553656</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111177</v>
+        <v>713587.7684111176</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6979486.212221514</v>
+        <v>6979486.212221515</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>180.1159031720507</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -725,7 +727,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>178.1573130319831</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>41.71305044180763</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>178.1573130319831</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>72.47049842454874</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>45.25033674232262</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,16 +1025,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9339545883733</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1227,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.457634160126806</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>109.8883707013301</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>241.9189633854832</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>133.1457235792707</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>102.6818803078115</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1497,10 +1499,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>174.1736765502209</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3249685652704</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.06064116356411</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>26.50533691882911</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>133.1457235792707</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>109.1906224126114</v>
@@ -1734,25 +1736,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>146.2482356522681</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>181.6683644804155</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R16" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356411</v>
+        <v>96.06064116356414</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>66.17054555350533</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969024</v>
+        <v>314.2883686136483</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1932,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
@@ -1980,7 +1982,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>35.62533723234316</v>
+        <v>53.36195138690189</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.332058976593661</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>68.10852146420221</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>85.52353857068431</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>188.4898575489387</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>95.71876532882382</v>
       </c>
     </row>
     <row r="22">
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>99.78974769572879</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>63.65031255674062</v>
+        <v>30.33390080600481</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>88.00880902957816</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.7219476531534</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
@@ -2460,10 +2462,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.7727335375556</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>38.97640474817486</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.67417889435403</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>104.1189927826355</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>88.00880902957816</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>86.53503342754627</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>109.5452525546694</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.0419082901681</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>85.08206208135982</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>50.13504822396274</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>18.12022702288998</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>98.68313739545475</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>342.3989529034562</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>240.5685791840599</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,19 +3110,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>147.3962661676074</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>130.0911502972332</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3190,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>30.44996741998434</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3269,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>142.4630035987964</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>32.10764432579385</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="C36" t="n">
-        <v>46.57473665873909</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>265.7301653101239</v>
+        <v>160.9432843732991</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3588,19 +3590,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>191.9638931116303</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>48.98427584501946</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3661,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>30.44996741998456</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>33.64439241526568</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>86.03950120842674</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>262.1287817022243</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3819,19 +3821,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
@@ -3870,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>2.560851017181262</v>
       </c>
       <c r="W42" t="n">
-        <v>30.00559026490398</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>18.12022702289011</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>106.9147497326714</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>86.47765048557292</v>
       </c>
       <c r="C44" t="n">
-        <v>205.0990980457144</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
@@ -4119,10 +4121,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>89.26542836574299</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>46.57473665873933</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73.36175976093807</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>38.97640474817507</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.84447166430675</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>69.84447166430675</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>69.84447166430675</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>69.84447166430675</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>69.84447166430675</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>69.84447166430675</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4413,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>318.0952036707959</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>318.0952036707959</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.84447166430675</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4504,13 +4506,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
+        <v>290.2572196227447</v>
+      </c>
+      <c r="G5" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G5" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>657.9038335500135</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C6" t="n">
-        <v>657.9038335500135</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D6" t="n">
-        <v>508.9694238887622</v>
+        <v>338.3492772117056</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>179.1118222062501</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>179.1118222062501</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,13 +4652,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>657.9038335500135</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>657.9038335500135</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>657.9038335500135</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y6" t="n">
-        <v>657.9038335500135</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>358.0940480307835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D8" t="n">
-        <v>358.0940480307835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E8" t="n">
-        <v>358.0940480307835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F8" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4884,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
         <v>656.0584510084244</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>959.5544947428314</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>786.1371501935002</v>
+        <v>853.0588012668684</v>
       </c>
       <c r="T9" t="n">
-        <v>583.9505555522662</v>
+        <v>650.8722066256344</v>
       </c>
       <c r="U9" t="n">
-        <v>583.9505555522662</v>
+        <v>422.6485883620235</v>
       </c>
       <c r="V9" t="n">
-        <v>583.9505555522662</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="W9" t="n">
-        <v>340.5017789081662</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X9" t="n">
-        <v>132.6502787026334</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y9" t="n">
-        <v>132.6502787026334</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="10">
@@ -4984,19 +4986,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D11" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E11" t="n">
-        <v>1378.603698709343</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F11" t="n">
-        <v>968.7637269953004</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812577</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.966287987609</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>918.9261272237986</v>
       </c>
       <c r="C12" t="n">
         <v>815.2070562058072</v>
@@ -5115,22 +5117,22 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K12" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L12" t="n">
-        <v>505.948365158507</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313474</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O12" t="n">
         <v>1271.486777082839</v>
@@ -5145,25 +5147,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V12" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W12" t="n">
-        <v>1541.568727888341</v>
+        <v>918.9261272237986</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.635721271956</v>
+        <v>918.9261272237986</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>918.9261272237986</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5218,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1622.96628798761</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="C14" t="n">
-        <v>1596.193220392833</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="D14" t="n">
-        <v>1237.927521786082</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="E14" t="n">
-        <v>852.139269187838</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="F14" t="n">
-        <v>442.299297473795</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>166.9499556378034</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528328</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U14" t="n">
-        <v>1622.96628798761</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V14" t="n">
-        <v>1622.96628798761</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W14" t="n">
-        <v>1622.96628798761</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="X14" t="n">
-        <v>1622.96628798761</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="Y14" t="n">
-        <v>1622.96628798761</v>
+        <v>503.7583553506526</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>555.7787446117381</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>381.3257153306112</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>381.3257153306112</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G15" t="n">
         <v>222.0882603251556</v>
@@ -5355,52 +5357,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K15" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L15" t="n">
-        <v>505.9483651585071</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313476</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1393.843237330495</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1393.843237330495</v>
       </c>
       <c r="U15" t="n">
-        <v>989.6600854869342</v>
+        <v>1393.843237330495</v>
       </c>
       <c r="V15" t="n">
-        <v>989.6600854869342</v>
+        <v>1393.843237330495</v>
       </c>
       <c r="W15" t="n">
-        <v>989.6600854869342</v>
+        <v>1139.605880602293</v>
       </c>
       <c r="X15" t="n">
-        <v>989.6600854869342</v>
+        <v>931.7543803967601</v>
       </c>
       <c r="Y15" t="n">
-        <v>989.6600854869342</v>
+        <v>723.9940816318062</v>
       </c>
     </row>
     <row r="16">
@@ -5437,7 +5439,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1236.366447923488</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="C17" t="n">
-        <v>867.4039309830762</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="D17" t="n">
-        <v>509.1382323763257</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="E17" t="n">
-        <v>442.299297473795</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975219</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M17" t="n">
         <v>838.8947028941458</v>
@@ -5528,37 +5530,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W17" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="X17" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594945</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>989.6600854869342</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C18" t="n">
-        <v>815.2070562058072</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D18" t="n">
-        <v>666.272646544556</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>201.1187329501919</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L18" t="n">
-        <v>498.8504879318551</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>898.2686245361181</v>
+        <v>656.0248753321101</v>
       </c>
       <c r="N18" t="n">
-        <v>1299.952780813052</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O18" t="n">
-        <v>1622.96628798761</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.96628798761</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1422.063279093103</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1193.860611630581</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V18" t="n">
-        <v>1157.875422507002</v>
+        <v>891.0598554926078</v>
       </c>
       <c r="W18" t="n">
-        <v>1157.875422507002</v>
+        <v>891.0598554926078</v>
       </c>
       <c r="X18" t="n">
-        <v>1157.875422507002</v>
+        <v>891.0598554926078</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.875422507002</v>
+        <v>683.2995567276539</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.88564795833165</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C19" t="n">
-        <v>41.88564795833165</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D19" t="n">
-        <v>41.88564795833165</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E19" t="n">
-        <v>41.88564795833165</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
         <v>32.45932575975219</v>
@@ -5692,31 +5694,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>296.5701361642185</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S19" t="n">
-        <v>296.5701361642185</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T19" t="n">
-        <v>296.5701361642185</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U19" t="n">
-        <v>296.5701361642185</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="V19" t="n">
-        <v>41.88564795833165</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="W19" t="n">
-        <v>41.88564795833165</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="X19" t="n">
-        <v>41.88564795833165</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.88564795833165</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>776.5132769647469</v>
+        <v>880.0583007416838</v>
       </c>
       <c r="C20" t="n">
-        <v>776.5132769647469</v>
+        <v>511.095783801272</v>
       </c>
       <c r="D20" t="n">
-        <v>418.2475783579964</v>
+        <v>511.095783801272</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975219</v>
+        <v>511.095783801272</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975219</v>
+        <v>101.2558120872292</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>101.2558120872292</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>101.2558120872292</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
         <v>838.8947028941458</v>
@@ -5765,37 +5767,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W20" t="n">
-        <v>1536.578875289948</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X20" t="n">
-        <v>1163.113117028869</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y20" t="n">
-        <v>1163.113117028869</v>
+        <v>880.0583007416838</v>
       </c>
     </row>
     <row r="21">
@@ -5829,52 +5831,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>534.697260562599</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M21" t="n">
-        <v>934.1153971668621</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O21" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U21" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="V21" t="n">
-        <v>1387.814179755867</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="W21" t="n">
-        <v>1197.420384251888</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="X21" t="n">
-        <v>1197.420384251888</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="Y21" t="n">
-        <v>989.6600854869342</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1391.209962814678</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144411</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.5925424806037</v>
+        <v>252.755659412858</v>
       </c>
       <c r="C23" t="n">
-        <v>506.5925424806037</v>
+        <v>252.755659412858</v>
       </c>
       <c r="D23" t="n">
-        <v>506.5925424806037</v>
+        <v>252.755659412858</v>
       </c>
       <c r="E23" t="n">
-        <v>506.5925424806037</v>
+        <v>252.755659412858</v>
       </c>
       <c r="F23" t="n">
-        <v>506.5925424806037</v>
+        <v>252.755659412858</v>
       </c>
       <c r="G23" t="n">
-        <v>96.75257076656089</v>
+        <v>252.755659412858</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
         <v>838.8947028941458</v>
@@ -6002,37 +6004,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="W23" t="n">
-        <v>1270.197632717495</v>
+        <v>1016.36074964975</v>
       </c>
       <c r="X23" t="n">
-        <v>896.7318744564154</v>
+        <v>642.8949913886697</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.5925424806037</v>
+        <v>252.755659412858</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>476.6437119791524</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C24" t="n">
-        <v>476.6437119791524</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D24" t="n">
-        <v>476.6437119791524</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E24" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F24" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
         <v>32.45932575975219</v>
@@ -6069,49 +6071,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497703</v>
+        <v>636.3836421851988</v>
       </c>
       <c r="N24" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O24" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R24" t="n">
-        <v>1562.641088337959</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S24" t="n">
-        <v>1395.138853296125</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1194.235844401619</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U24" t="n">
-        <v>966.0331769390968</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V24" t="n">
-        <v>730.8810687073541</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W24" t="n">
-        <v>476.6437119791524</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X24" t="n">
-        <v>476.6437119791524</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="Y24" t="n">
-        <v>476.6437119791524</v>
+        <v>121.357112658316</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144411</v>
+        <v>1453.545409657094</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K25" t="n">
         <v>1302.533129726572</v>
@@ -6163,34 +6165,34 @@
         <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W25" t="n">
-        <v>1333.549117950649</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>401.4218427001639</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975219</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D26" t="n">
         <v>32.45932575975219</v>
@@ -6230,7 +6232,7 @@
         <v>247.3580469011317</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
         <v>838.8947028941458</v>
@@ -6239,7 +6241,7 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O26" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P26" t="n">
         <v>1569.862809315274</v>
@@ -6248,28 +6250,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.96628798761</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.96628798761</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="T26" t="n">
-        <v>1517.79558820717</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="U26" t="n">
-        <v>1517.79558820717</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="V26" t="n">
-        <v>1517.79558820717</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="W26" t="n">
-        <v>1165.026932937056</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="X26" t="n">
-        <v>791.5611746759756</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.4218427001639</v>
+        <v>1146.287381371036</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C27" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D27" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E27" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F27" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G27" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975219</v>
@@ -6306,49 +6308,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L27" t="n">
-        <v>534.697260562599</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668621</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1454.159603214052</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U27" t="n">
-        <v>1225.95693575153</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V27" t="n">
-        <v>990.8048275197878</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W27" t="n">
-        <v>736.5674707915862</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X27" t="n">
-        <v>528.7159705860533</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="Y27" t="n">
-        <v>528.7159705860533</v>
+        <v>121.357112658316</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.96628798761</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X28" t="n">
-        <v>1394.976737089592</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>528.8993486152383</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C29" t="n">
-        <v>528.8993486152383</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D29" t="n">
-        <v>528.8993486152383</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E29" t="n">
-        <v>143.1110960169941</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F29" t="n">
-        <v>143.1110960169941</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G29" t="n">
-        <v>143.1110960169941</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H29" t="n">
-        <v>143.1110960169941</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O29" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P29" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
         <v>1508.970645214178</v>
       </c>
       <c r="S29" t="n">
-        <v>1508.970645214178</v>
+        <v>1468.524273203907</v>
       </c>
       <c r="T29" t="n">
-        <v>1508.970645214178</v>
+        <v>1468.524273203907</v>
       </c>
       <c r="U29" t="n">
-        <v>1255.133762146432</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="V29" t="n">
-        <v>1255.133762146432</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="W29" t="n">
-        <v>902.3651068763181</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="X29" t="n">
-        <v>528.8993486152383</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="Y29" t="n">
-        <v>528.8993486152383</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>424.6601048545757</v>
+        <v>752.2141233944144</v>
       </c>
       <c r="C30" t="n">
-        <v>250.2070755734487</v>
+        <v>752.2141233944144</v>
       </c>
       <c r="D30" t="n">
-        <v>250.2070755734487</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E30" t="n">
-        <v>250.2070755734487</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F30" t="n">
-        <v>250.2070755734487</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G30" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H30" t="n">
         <v>111.7947023326189</v>
@@ -6549,43 +6551,43 @@
         <v>534.697260562599</v>
       </c>
       <c r="M30" t="n">
-        <v>656.0248753321105</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O30" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1490.927265035854</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1490.927265035854</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U30" t="n">
-        <v>1262.724597573332</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="V30" t="n">
-        <v>1262.724597573332</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="W30" t="n">
-        <v>1008.48724084513</v>
+        <v>1167.825922364901</v>
       </c>
       <c r="X30" t="n">
-        <v>800.6357406395975</v>
+        <v>959.9744221593683</v>
       </c>
       <c r="Y30" t="n">
-        <v>592.8754418746437</v>
+        <v>752.2141233944144</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.179012144412</v>
+        <v>1604.663028368529</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144412</v>
+        <v>1604.663028368529</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144412</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K31" t="n">
         <v>1302.533129726572</v>
@@ -6637,34 +6639,34 @@
         <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S31" t="n">
-        <v>1523.286351224524</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1122.370805150056</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.370805150056</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D32" t="n">
-        <v>764.1051065433057</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E32" t="n">
-        <v>378.3168539450615</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F32" t="n">
         <v>32.45932575975219</v>
@@ -6701,10 +6703,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
         <v>838.8947028941458</v>
@@ -6713,7 +6715,7 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
@@ -6722,28 +6724,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>1508.970645214178</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="V32" t="n">
-        <v>1508.970645214178</v>
+        <v>1038.066517576293</v>
       </c>
       <c r="W32" t="n">
-        <v>1508.970645214178</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="X32" t="n">
-        <v>1508.970645214178</v>
+        <v>442.299297473795</v>
       </c>
       <c r="Y32" t="n">
-        <v>1508.970645214178</v>
+        <v>442.299297473795</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.45932575975219</v>
+        <v>653.4965929484157</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975219</v>
+        <v>479.0435636672887</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975219</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G33" t="n">
         <v>32.45932575975219</v>
@@ -6804,25 +6806,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051269</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U33" t="n">
-        <v>1105.675926710251</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V33" t="n">
-        <v>870.5238184785085</v>
+        <v>1491.561085667172</v>
       </c>
       <c r="W33" t="n">
-        <v>616.2864617503069</v>
+        <v>1237.32372893897</v>
       </c>
       <c r="X33" t="n">
-        <v>408.4349615447741</v>
+        <v>1029.472228733438</v>
       </c>
       <c r="Y33" t="n">
-        <v>200.6746627798202</v>
+        <v>821.7119299684837</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1622.96628798761</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C34" t="n">
-        <v>1622.96628798761</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D34" t="n">
-        <v>1472.849648575274</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E34" t="n">
-        <v>1324.936554992881</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144412</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144412</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.96628798761</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.96628798761</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.96628798761</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.96628798761</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X34" t="n">
-        <v>1622.96628798761</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y34" t="n">
-        <v>1622.96628798761</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.1638382513748</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="C35" t="n">
-        <v>586.2013213109631</v>
+        <v>808.9452409301953</v>
       </c>
       <c r="D35" t="n">
-        <v>586.2013213109631</v>
+        <v>450.6795423234448</v>
       </c>
       <c r="E35" t="n">
-        <v>586.2013213109631</v>
+        <v>64.89128972520052</v>
       </c>
       <c r="F35" t="n">
-        <v>586.2013213109631</v>
+        <v>64.89128972520052</v>
       </c>
       <c r="G35" t="n">
-        <v>176.3613495969203</v>
+        <v>64.89128972520052</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>64.89128972520052</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941458</v>
@@ -6965,22 +6967,22 @@
         <v>1508.970645214178</v>
       </c>
       <c r="T35" t="n">
-        <v>1286.226725594945</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U35" t="n">
-        <v>1286.226725594945</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V35" t="n">
-        <v>955.1638382513748</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="W35" t="n">
-        <v>955.1638382513748</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="X35" t="n">
-        <v>955.1638382513748</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="Y35" t="n">
-        <v>955.1638382513748</v>
+        <v>1177.907757870607</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79.50451430393309</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C36" t="n">
         <v>32.45932575975219</v>
@@ -7017,22 +7019,22 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384404</v>
+        <v>201.1187329501918</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>498.850487931855</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497703</v>
+        <v>898.268624536118</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.042269026704</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O36" t="n">
-        <v>1483.055776201262</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7059,7 +7061,7 @@
         <v>247.7198513240011</v>
       </c>
       <c r="Y36" t="n">
-        <v>247.7198513240011</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C37" t="n">
         <v>32.45932575975219</v>
@@ -7126,19 +7128,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>72.05002336285366</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1354.551979593545</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C38" t="n">
-        <v>1354.551979593545</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D38" t="n">
-        <v>1354.551979593545</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E38" t="n">
-        <v>968.7637269953007</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F38" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
@@ -7175,19 +7177,19 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
@@ -7196,28 +7198,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="V38" t="n">
-        <v>1354.551979593545</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W38" t="n">
-        <v>1354.551979593545</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X38" t="n">
-        <v>1354.551979593545</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y38" t="n">
-        <v>1354.551979593545</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>355.8467647021305</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C39" t="n">
-        <v>181.3937354210034</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975219</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
@@ -7257,10 +7259,10 @@
         <v>208.2166101768439</v>
       </c>
       <c r="L39" t="n">
-        <v>505.9483651585072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M39" t="n">
-        <v>905.3665017627702</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N39" t="n">
         <v>1057.709031609044</v>
@@ -7284,19 +7286,19 @@
         <v>1622.96628798761</v>
       </c>
       <c r="U39" t="n">
-        <v>1429.063365652629</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V39" t="n">
-        <v>1193.911257420887</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W39" t="n">
-        <v>939.6739006926853</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X39" t="n">
-        <v>731.8224004871524</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y39" t="n">
-        <v>524.0621017221986</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="40">
@@ -7309,28 +7311,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="C40" t="n">
-        <v>1592.20874513914</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="D40" t="n">
-        <v>1442.092105726805</v>
+        <v>1588.982053224715</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144411</v>
+        <v>1441.068959642322</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K40" t="n">
         <v>1302.533129726572</v>
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>631.9553272824515</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C41" t="n">
-        <v>631.9553272824515</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D41" t="n">
-        <v>631.9553272824515</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E41" t="n">
-        <v>631.9553272824515</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F41" t="n">
-        <v>631.9553272824515</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G41" t="n">
         <v>222.1153555684087</v>
@@ -7412,13 +7414,13 @@
         <v>70.13987180521511</v>
       </c>
       <c r="K41" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7427,7 +7429,7 @@
         <v>1396.317581748321</v>
       </c>
       <c r="P41" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q41" t="n">
         <v>1622.96628798761</v>
@@ -7436,25 +7438,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.96628798761</v>
+        <v>1338.489101075414</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.96628798761</v>
+        <v>1338.489101075414</v>
       </c>
       <c r="V41" t="n">
-        <v>1358.189740813646</v>
+        <v>1338.489101075414</v>
       </c>
       <c r="W41" t="n">
-        <v>1005.421085543531</v>
+        <v>985.7204458053002</v>
       </c>
       <c r="X41" t="n">
-        <v>631.9553272824515</v>
+        <v>612.2546875442204</v>
       </c>
       <c r="Y41" t="n">
-        <v>631.9553272824515</v>
+        <v>222.1153555684087</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>545.4756992675339</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="C42" t="n">
-        <v>371.0226699864069</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>222.0882603251556</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>222.0882603251556</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>222.0882603251556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
         <v>222.0882603251556</v>
@@ -7488,10 +7490,10 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384406</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384406</v>
       </c>
       <c r="L42" t="n">
         <v>147.3709770270844</v>
@@ -7518,22 +7520,22 @@
         <v>1622.96628798761</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.96628798761</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U42" t="n">
-        <v>1394.763620525088</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V42" t="n">
-        <v>1159.611512293345</v>
+        <v>1191.273893431408</v>
       </c>
       <c r="W42" t="n">
-        <v>1129.302835258089</v>
+        <v>1191.273893431408</v>
       </c>
       <c r="X42" t="n">
-        <v>921.4513350525558</v>
+        <v>983.4223932258753</v>
       </c>
       <c r="Y42" t="n">
-        <v>713.6910362876019</v>
+        <v>983.4223932258753</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>199.7544622051773</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>50.76258537883311</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280249</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.2357570984441</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710738</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="X43" t="n">
-        <v>1514.971591287941</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Y43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1035.258356178821</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C44" t="n">
-        <v>828.0875500720392</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D44" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E44" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F44" t="n">
         <v>32.45932575975219</v>
@@ -7646,7 +7648,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521511</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
         <v>247.358046901132</v>
@@ -7673,25 +7675,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S44" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T44" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U44" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V44" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W44" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X44" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y44" t="n">
-        <v>1035.258356178821</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C45" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
@@ -7728,10 +7730,10 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>505.9483651585072</v>
       </c>
       <c r="M45" t="n">
         <v>656.0248753321102</v>
@@ -7749,28 +7751,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.96628798761</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.96628798761</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U45" t="n">
-        <v>1394.763620525088</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V45" t="n">
-        <v>1159.611512293345</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W45" t="n">
-        <v>905.3741555651436</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X45" t="n">
-        <v>815.2070562058072</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="Y45" t="n">
-        <v>815.2070562058072</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598964</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598964</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598964</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598964</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598964</v>
       </c>
       <c r="G46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598964</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975219</v>
@@ -7840,16 +7842,16 @@
         <v>361.2466016029502</v>
       </c>
       <c r="V46" t="n">
-        <v>106.5621133970634</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="W46" t="n">
-        <v>106.5621133970634</v>
+        <v>71.82943156598964</v>
       </c>
       <c r="X46" t="n">
-        <v>106.5621133970634</v>
+        <v>71.82943156598964</v>
       </c>
       <c r="Y46" t="n">
-        <v>106.5621133970634</v>
+        <v>71.82943156598964</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,7 +8309,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>103.505681799068</v>
+        <v>74.46639351210649</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>103.5056817990681</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>174.1879045256798</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>228.256375769403</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>391.3774455544764</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304797</v>
@@ -9258,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>73.77211287831321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>99.7381345027554</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321619</v>
       </c>
       <c r="N21" t="n">
-        <v>174.1879045256798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733471</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>241.3813618149009</v>
+        <v>364.5878977387109</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>362.3381572675153</v>
       </c>
       <c r="N27" t="n">
-        <v>63.84875129258644</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>184.8055467452004</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>174.1879045256798</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>228.2563757694029</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>104.7567089243584</v>
+        <v>73.77211287831321</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344736</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321619</v>
       </c>
       <c r="N39" t="n">
-        <v>203.2271928126414</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599045</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344736</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>86.93262649026371</v>
       </c>
       <c r="L42" t="n">
-        <v>186.173573874842</v>
+        <v>157.1342855878805</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,13 +11378,13 @@
         <v>97.05174705344736</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026371</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>391.3774455544765</v>
+        <v>213.8448350321616</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -23264,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.0114066867786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>216.0952451381423</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>70.02661868050427</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23385,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>31.59930865325657</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23431,13 +23433,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>56.55224943852481</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23495,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>338.7675548521784</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>54.61374593129918</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>19.57897703914765</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>44.25227630748105</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23674,7 +23676,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>123.3497577082892</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>315.7598245187564</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809043</v>
+        <v>92.58767712806309</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2985142370684</v>
@@ -23820,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23868,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.1752499170821</v>
+        <v>179.4386357625234</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>136.0889890463376</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.7266695472104</v>
@@ -23932,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>219.4103988718534</v>
@@ -23947,7 +23949,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>58.49431140418636</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
@@ -23987,7 +23989,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>119.6509480463677</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>263.7174301467287</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>63.20512561198092</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>109.9639304484805</v>
       </c>
     </row>
     <row r="22">
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>118.794905656366</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>269.79000315898</v>
+        <v>303.1064149097158</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,7 +24262,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>78.52437462028918</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,13 +24293,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.86163684512211</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24348,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>2.104484466239654</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>186.7332506408623</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>27.18150745134341</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>116.3974876404043</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>78.52437462028918</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>112.3589453780154</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24649,10 +24651,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="U28" t="n">
         <v>286.3046124576955</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.794905656366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>78.21421695590048</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>155.5510055444784</v>
       </c>
       <c r="T29" t="n">
         <v>220.5164804230398</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>62.36300348327893</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>115.692164467453</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>127.3008210000413</v>
       </c>
       <c r="G31" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>74.67247646141475</v>
@@ -24886,10 +24888,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>120.7272614763986</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>64.47709283825526</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24971,16 +24973,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>129.1625214944091</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,19 +24998,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -25044,16 +25046,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>78.52437462028919</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>102.709436852192</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>114.9710806029469</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
-        <v>159.8772180037952</v>
+        <v>61.19408060834053</v>
       </c>
       <c r="I34" t="n">
         <v>147.5019580580808</v>
@@ -25126,7 +25128,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25157,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>190.9773121169242</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>155.6518251847761</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,7 +25207,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>159.1079591185653</v>
       </c>
       <c r="C36" t="n">
-        <v>126.1337623295767</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>128.0520304715574</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25366,16 +25368,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
@@ -25448,16 +25450,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>62.02209316001097</v>
+        <v>166.8089740968358</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25476,19 +25478,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25524,13 +25526,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>33.95674767626633</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>202.7107073159002</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>136.7968536786433</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>114.9710806029467</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.7266695472104</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434427</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25640,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25676,16 +25678,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>134.4769792146131</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>65.62347676791057</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25707,19 +25709,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25758,22 +25760,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>230.239736132244</v>
       </c>
       <c r="W42" t="n">
-        <v>221.6893928960156</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25801,13 +25803,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141475</v>
+        <v>56.55224943852464</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>118.7949056563657</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>296.2561911779077</v>
       </c>
       <c r="C44" t="n">
-        <v>160.1737937252931</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
@@ -25913,7 +25915,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26007,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>116.5075568377345</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>159.107959118565</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.4702204209992</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26038,7 +26040,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>120.9008132556201</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26080,10 +26082,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>495615.8383346507</v>
+        <v>495615.8383346508</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>495615.8383346505</v>
+        <v>495615.8383346508</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>495615.8383346508</v>
+        <v>495615.8383346505</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>495615.8383346504</v>
+        <v>495615.8383346509</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>495615.8383346505</v>
+        <v>495615.8383346507</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>495615.8383346506</v>
+        <v>495615.8383346504</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>495615.8383346508</v>
+        <v>495615.838334651</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495615.8383346505</v>
+        <v>495615.8383346508</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>495615.8383346505</v>
+        <v>495615.8383346504</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>277717.5661839885</v>
@@ -26329,7 +26331,7 @@
         <v>277717.5661839886</v>
       </c>
       <c r="H2" t="n">
-        <v>277717.5661839883</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="I2" t="n">
         <v>277717.5661839885</v>
@@ -26341,19 +26343,19 @@
         <v>277717.5661839885</v>
       </c>
       <c r="L2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839886</v>
       </c>
       <c r="M2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839886</v>
       </c>
       <c r="N2" t="n">
         <v>277717.5661839886</v>
       </c>
       <c r="O2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839886</v>
       </c>
       <c r="P2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839886</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.6978624479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>25938.22349556464</v>
       </c>
       <c r="H4" t="n">
-        <v>25938.22349556463</v>
+        <v>25938.22349556464</v>
       </c>
       <c r="I4" t="n">
         <v>25938.22349556464</v>
@@ -26454,10 +26456,10 @@
         <v>25938.22349556464</v>
       </c>
       <c r="O4" t="n">
+        <v>25938.22349556463</v>
+      </c>
+      <c r="P4" t="n">
         <v>25938.22349556464</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25938.22349556463</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26478,25 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="H5" t="n">
         <v>27864.35291375758</v>
       </c>
-      <c r="H5" t="n">
-        <v>27864.35291375757</v>
-      </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375758</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
         <v>27864.35291375758</v>
@@ -26525,7 +26527,7 @@
         <v>181168.0858009437</v>
       </c>
       <c r="D6" t="n">
-        <v>181168.085800944</v>
+        <v>181168.0858009438</v>
       </c>
       <c r="E6" t="n">
         <v>56974.81964941957</v>
@@ -26537,13 +26539,13 @@
         <v>223914.9897746664</v>
       </c>
       <c r="H6" t="n">
-        <v>223914.9897746661</v>
+        <v>223914.9897746662</v>
       </c>
       <c r="I6" t="n">
         <v>223914.9897746663</v>
       </c>
       <c r="J6" t="n">
-        <v>160855.0471755601</v>
+        <v>160855.04717556</v>
       </c>
       <c r="K6" t="n">
         <v>223914.9897746663</v>
@@ -26552,13 +26554,13 @@
         <v>223914.9897746663</v>
       </c>
       <c r="M6" t="n">
-        <v>182864.2919122184</v>
+        <v>182864.2919122185</v>
       </c>
       <c r="N6" t="n">
+        <v>223914.9897746663</v>
+      </c>
+      <c r="O6" t="n">
         <v>223914.9897746664</v>
-      </c>
-      <c r="O6" t="n">
-        <v>223914.9897746663</v>
       </c>
       <c r="P6" t="n">
         <v>223914.9897746663</v>
@@ -26747,7 +26749,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="G3" t="n">
         <v>146.5718044195371</v>
@@ -26799,22 +26801,22 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="G4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="H4" t="n">
         <v>405.7415719969024</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>405.7415719969024</v>
-      </c>
-      <c r="H4" t="n">
-        <v>405.7415719969023</v>
-      </c>
-      <c r="I4" t="n">
-        <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969024</v>
       </c>
       <c r="K4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="L4" t="n">
         <v>405.7415719969024</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>202.6179384914298</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27436,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -27445,7 +27447,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>208.0806256240705</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27473,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>62.92434029420124</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27508,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>209.981932719112</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27576,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>204.5765286314975</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>334.4055473171627</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>92.09318042088802</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>29.86663256105194</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,10 +27867,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>320.892250521429</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27898,10 +27900,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27947,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>95.70019999251633</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>61.79480040250768</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28056,7 +28058,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438474</v>
@@ -32011,16 +32013,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
@@ -32029,7 +32031,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32071,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,40 +32150,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O16" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R16" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011538</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046569</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I38" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629223</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645909</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044667</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N38" t="n">
-        <v>105.1383858978455</v>
+        <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971774</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737674</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.6305766613479</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545226</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S38" t="n">
-        <v>13.42715575159881</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T38" t="n">
-        <v>2.579369141091552</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0471386707680923</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3152676547891931</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885102</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321934</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409527</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L39" t="n">
-        <v>68.4531809225395</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864773</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975597</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100594</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601706</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326612</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R39" t="n">
-        <v>19.57424965436763</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422069</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T39" t="n">
-        <v>1.270749889259949</v>
+        <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
         <v>0.02074129307823639</v>
@@ -34041,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483456</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644384</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177523</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J40" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K40" t="n">
-        <v>30.70799443412596</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323132</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141112</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039459</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O40" t="n">
-        <v>37.35899041172072</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225444</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.13234246735011</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118895</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T40" t="n">
-        <v>1.129323738970204</v>
+        <v>1.129323738970203</v>
       </c>
       <c r="U40" t="n">
         <v>0.01441689879536432</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,7 +35029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
         <v>177.5326105223149</v>
@@ -35495,7 +35497,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>41.25328128569732</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726433</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
         <v>177.5326105223149</v>
@@ -35732,19 +35734,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>41.25328128569749</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969024</v>
+        <v>124.8420549921024</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L16" t="n">
         <v>66.88568574354744</v>
@@ -35817,10 +35819,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>141.3237492791392</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366293</v>
+        <v>329.1250450411058</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>177.5326105223149</v>
@@ -36206,10 +36208,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>151.5924345187913</v>
       </c>
       <c r="N21" t="n">
-        <v>124.8420549921024</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36437,16 +36439,16 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>192.0355122813236</v>
+        <v>315.2420482051336</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36674,16 +36676,16 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366293</v>
+        <v>300.0857567541447</v>
       </c>
       <c r="N27" t="n">
-        <v>14.50290175900908</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36692,7 +36694,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>122.5531462318298</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969024</v>
+        <v>124.8420549921024</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37385,7 +37387,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>141.3237492791391</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37400,10 +37402,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>30.98459604604517</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167971</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L38" t="n">
-        <v>274.8802469209099</v>
+        <v>274.8802469209098</v>
       </c>
       <c r="M38" t="n">
-        <v>322.6315268094072</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N38" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O38" t="n">
-        <v>249.9811662707764</v>
+        <v>249.9811662707763</v>
       </c>
       <c r="P38" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680309</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>177.5326105223149</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461245</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>403.4526632366293</v>
+        <v>151.5924345187913</v>
       </c>
       <c r="N39" t="n">
-        <v>153.8813432790641</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37701,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243112</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354746</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325171</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962319</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576039</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714793</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>38.06115762167971</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209099</v>
@@ -37798,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680288</v>
+        <v>53.63987744680309</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696148</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>116.0723750175073</v>
+        <v>87.03308673054579</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
@@ -38032,7 +38034,7 @@
         <v>249.9811662707764</v>
       </c>
       <c r="P44" t="n">
-        <v>175.2982096635895</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
         <v>53.63987744680309</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461245</v>
       </c>
       <c r="M45" t="n">
-        <v>329.1250450411059</v>
+        <v>151.592434518791</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969024</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1525000.363553656</v>
+        <v>1469222.841411052</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111176</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205211</v>
+        <v>11813519.27205212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6979486.212221515</v>
+        <v>6979486.212221513</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.1159031720507</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>216.6234524382191</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>41.71305044180763</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>40.67087089223148</v>
       </c>
     </row>
     <row r="4">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>178.1573130319831</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>45.25033674232262</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>62.06724838325423</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,16 +1025,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,67 +1132,67 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>57.16776090941369</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1217,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>109.8883707013301</v>
+        <v>36.40077093850605</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>254.4523042263059</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>220.5164804230398</v>
@@ -1429,16 +1429,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>133.1457235792707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>102.6818803078115</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1466,10 +1466,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>43.77181700123182</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356411</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>310.8440558680849</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>133.1457235792707</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1706,7 +1706,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>146.2482356522681</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>25.34899103937086</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356414</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>314.2883686136483</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>189.1213404451501</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1931,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>53.36195138690189</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>49.17029654913495</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>405.7415719969024</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>17.95817021688045</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>68.10852146420221</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>138.7517513120496</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>95.71876532882382</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.78974769572879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>30.33390080600481</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>58.42685044277513</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>88.00880902957816</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>119.5779105823188</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2462,7 +2462,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>81.21596998689236</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>85.67417889435403</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>88.00880902957816</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>63.96587118581287</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
@@ -2696,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.0419082901681</v>
+        <v>17.95817021688052</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>85.08206208135982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>20.95987404355319</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>18.12022702288998</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>405.7415719969024</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>67.31984511162382</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>240.5685791840599</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>120.9830058185668</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>130.0911502972332</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>30.96091120189194</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>32.10764432579385</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.42522453130207</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>114.1942888468241</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>264.0251236100229</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>160.9432843732991</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3590,19 +3590,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>33.01662678174315</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>48.98427584501946</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33.64439241526568</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>86.03950120842674</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>212.1290707785722</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3821,25 +3821,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>202.3807091678476</v>
       </c>
       <c r="V42" t="n">
-        <v>2.560851017181262</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.12022702289011</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>99.78974769572892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>86.47765048557292</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>234.9486708854577</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
@@ -4121,10 +4121,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>149.8722584277343</v>
       </c>
       <c r="Y45" t="n">
-        <v>46.57473665873933</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>38.97640474817507</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>99.78974769572892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4360,22 +4360,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X2" t="n">
-        <v>467.067986854209</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y2" t="n">
-        <v>223.6192102101089</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>318.0952036707959</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>318.0952036707959</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>922.9754677407054</v>
       </c>
     </row>
     <row r="4">
@@ -4506,13 +4506,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.2027203719481</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C6" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D6" t="n">
-        <v>338.3492772117056</v>
+        <v>478.8011081705279</v>
       </c>
       <c r="E6" t="n">
-        <v>179.1118222062501</v>
+        <v>319.5636531650724</v>
       </c>
       <c r="F6" t="n">
-        <v>179.1118222062501</v>
+        <v>173.0290951919573</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>173.0290951919573</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X6" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y6" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="7">
@@ -4707,25 +4707,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>749.627473042513</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E8" t="n">
-        <v>749.627473042513</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F8" t="n">
-        <v>506.1786963984129</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,10 +4889,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
         <v>656.0584510084244</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>853.0588012668684</v>
+        <v>826.1191705700815</v>
       </c>
       <c r="T9" t="n">
-        <v>650.8722066256344</v>
+        <v>826.1191705700815</v>
       </c>
       <c r="U9" t="n">
-        <v>422.6485883620235</v>
+        <v>826.1191705700815</v>
       </c>
       <c r="V9" t="n">
-        <v>187.4964801302808</v>
+        <v>826.1191705700815</v>
       </c>
       <c r="W9" t="n">
-        <v>187.4964801302808</v>
+        <v>826.1191705700815</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4964801302808</v>
+        <v>826.1191705700815</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>826.1191705700815</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T11" t="n">
-        <v>1088.658125761969</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U11" t="n">
-        <v>834.8212426942232</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V11" t="n">
-        <v>503.7583553506526</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="W11" t="n">
-        <v>369.2677254726013</v>
+        <v>679.621187257085</v>
       </c>
       <c r="X11" t="n">
-        <v>369.2677254726013</v>
+        <v>679.621187257085</v>
       </c>
       <c r="Y11" t="n">
-        <v>369.2677254726013</v>
+        <v>289.4818552812733</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>918.9261272237986</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>534.697260562599</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313475</v>
+        <v>636.3836421851986</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O12" t="n">
         <v>1271.486777082839</v>
@@ -5144,28 +5144,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1411.250096378874</v>
       </c>
       <c r="U12" t="n">
-        <v>1173.163483952</v>
+        <v>1411.250096378874</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.163483952</v>
+        <v>1176.097988147131</v>
       </c>
       <c r="W12" t="n">
-        <v>918.9261272237986</v>
+        <v>1176.097988147131</v>
       </c>
       <c r="X12" t="n">
-        <v>918.9261272237986</v>
+        <v>968.2464879415986</v>
       </c>
       <c r="Y12" t="n">
-        <v>918.9261272237986</v>
+        <v>968.2464879415986</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5220,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>503.7583553506526</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="C14" t="n">
-        <v>503.7583553506526</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="D14" t="n">
-        <v>503.7583553506526</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="E14" t="n">
-        <v>503.7583553506526</v>
+        <v>346.4432205759995</v>
       </c>
       <c r="F14" t="n">
-        <v>503.7583553506526</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G14" t="n">
-        <v>503.7583553506526</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>166.9499556378034</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U14" t="n">
-        <v>834.8212426942232</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V14" t="n">
-        <v>503.7583553506526</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W14" t="n">
-        <v>503.7583553506526</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X14" t="n">
-        <v>503.7583553506526</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y14" t="n">
-        <v>503.7583553506526</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>555.7787446117381</v>
+        <v>476.4433680388714</v>
       </c>
       <c r="C15" t="n">
-        <v>381.3257153306112</v>
+        <v>301.9903387577444</v>
       </c>
       <c r="D15" t="n">
-        <v>381.3257153306112</v>
+        <v>301.9903387577444</v>
       </c>
       <c r="E15" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F15" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>534.697260562599</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668621</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
@@ -5384,25 +5384,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1393.843237330495</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1393.843237330495</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1393.843237330495</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V15" t="n">
-        <v>1393.843237330495</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W15" t="n">
-        <v>1139.605880602293</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="X15" t="n">
-        <v>931.7543803967601</v>
+        <v>684.2036668038254</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.9940816318062</v>
+        <v>476.4433680388714</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5457,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>214.1077905899919</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1286.226725594945</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="C17" t="n">
-        <v>1286.226725594945</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="D17" t="n">
-        <v>1286.226725594945</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="E17" t="n">
-        <v>1286.226725594945</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="F17" t="n">
-        <v>968.7637269953007</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812579</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H17" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1508.970645214178</v>
+        <v>1431.934630972306</v>
       </c>
       <c r="T17" t="n">
-        <v>1286.226725594945</v>
+        <v>1431.934630972306</v>
       </c>
       <c r="U17" t="n">
-        <v>1286.226725594945</v>
+        <v>1431.934630972306</v>
       </c>
       <c r="V17" t="n">
-        <v>1286.226725594945</v>
+        <v>1431.934630972306</v>
       </c>
       <c r="W17" t="n">
-        <v>1286.226725594945</v>
+        <v>1431.934630972306</v>
       </c>
       <c r="X17" t="n">
-        <v>1286.226725594945</v>
+        <v>1431.934630972306</v>
       </c>
       <c r="Y17" t="n">
-        <v>1286.226725594945</v>
+        <v>1041.795298996494</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>515.0842197075859</v>
+        <v>720.1290724889419</v>
       </c>
       <c r="C18" t="n">
-        <v>340.6311904264589</v>
+        <v>545.6760432078149</v>
       </c>
       <c r="D18" t="n">
-        <v>191.6967807652077</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975219</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975219</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M18" t="n">
-        <v>656.0248753321101</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5627,19 +5627,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894784</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V18" t="n">
-        <v>891.0598554926078</v>
+        <v>938.0113757202573</v>
       </c>
       <c r="W18" t="n">
-        <v>891.0598554926078</v>
+        <v>888.3444095090099</v>
       </c>
       <c r="X18" t="n">
-        <v>891.0598554926078</v>
+        <v>888.3444095090099</v>
       </c>
       <c r="Y18" t="n">
-        <v>683.2995567276539</v>
+        <v>888.3444095090099</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5697,28 +5697,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>194.1667418687506</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S19" t="n">
-        <v>194.1667418687506</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T19" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U19" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V19" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>880.0583007416838</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="C20" t="n">
-        <v>511.095783801272</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="D20" t="n">
-        <v>511.095783801272</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="E20" t="n">
-        <v>511.095783801272</v>
+        <v>460.4388633494319</v>
       </c>
       <c r="F20" t="n">
-        <v>101.2558120872292</v>
+        <v>50.59889163538901</v>
       </c>
       <c r="G20" t="n">
-        <v>101.2558120872292</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>101.2558120872292</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
@@ -5791,13 +5791,13 @@
         <v>1622.96628798761</v>
       </c>
       <c r="W20" t="n">
-        <v>1270.197632717495</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X20" t="n">
-        <v>1270.197632717495</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y20" t="n">
-        <v>880.0583007416838</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>989.6600854869342</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="C21" t="n">
-        <v>815.2070562058072</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D21" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L21" t="n">
-        <v>505.9483651585071</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321105</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609044</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O21" t="n">
         <v>1380.722538783602</v>
@@ -5858,25 +5858,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T21" t="n">
-        <v>1254.561044051269</v>
+        <v>1482.813003834024</v>
       </c>
       <c r="U21" t="n">
-        <v>1254.561044051269</v>
+        <v>1254.610336371502</v>
       </c>
       <c r="V21" t="n">
-        <v>1254.561044051269</v>
+        <v>1019.45822813976</v>
       </c>
       <c r="W21" t="n">
-        <v>1254.561044051269</v>
+        <v>765.2208714115582</v>
       </c>
       <c r="X21" t="n">
-        <v>1254.561044051269</v>
+        <v>557.3693712060253</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.875422507002</v>
+        <v>349.6090724410715</v>
       </c>
     </row>
     <row r="22">
@@ -5940,19 +5940,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
         <v>32.45932575975219</v>
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>252.755659412858</v>
+        <v>787.2100952984081</v>
       </c>
       <c r="C23" t="n">
-        <v>252.755659412858</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D23" t="n">
-        <v>252.755659412858</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E23" t="n">
-        <v>252.755659412858</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F23" t="n">
-        <v>252.755659412858</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G23" t="n">
-        <v>252.755659412858</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H23" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M23" t="n">
         <v>838.8947028941458</v>
@@ -6004,37 +6004,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1369.129404919864</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>1369.129404919864</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W23" t="n">
-        <v>1016.36074964975</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X23" t="n">
-        <v>642.8949913886697</v>
+        <v>1563.949267338342</v>
       </c>
       <c r="Y23" t="n">
-        <v>252.755659412858</v>
+        <v>1173.80993536253</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32.45932575975219</v>
+        <v>448.714061659087</v>
       </c>
       <c r="C24" t="n">
-        <v>32.45932575975219</v>
+        <v>448.714061659087</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975219</v>
+        <v>299.7796519978357</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975219</v>
+        <v>299.7796519978357</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>153.2450940247207</v>
       </c>
       <c r="G24" t="n">
         <v>32.45932575975219</v>
@@ -6068,52 +6068,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L24" t="n">
-        <v>236.9655055809358</v>
+        <v>256.6067387278471</v>
       </c>
       <c r="M24" t="n">
-        <v>636.3836421851988</v>
+        <v>656.0248753321101</v>
       </c>
       <c r="N24" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O24" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1254.561044051269</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U24" t="n">
-        <v>1026.358376588747</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V24" t="n">
-        <v>791.2062683570043</v>
+        <v>910.7117171522425</v>
       </c>
       <c r="W24" t="n">
-        <v>536.9689116288027</v>
+        <v>656.4743604240409</v>
       </c>
       <c r="X24" t="n">
-        <v>329.1174114232699</v>
+        <v>656.4743604240409</v>
       </c>
       <c r="Y24" t="n">
-        <v>121.357112658316</v>
+        <v>448.714061659087</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>1453.545409657094</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L25" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N25" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.96628798761</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>759.6875413069145</v>
+        <v>472.761357686596</v>
       </c>
       <c r="C26" t="n">
-        <v>390.7250243665027</v>
+        <v>472.761357686596</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975219</v>
+        <v>114.4956590798455</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>114.4956590798455</v>
       </c>
       <c r="F26" t="n">
         <v>32.45932575975219</v>
@@ -6226,13 +6226,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M26" t="n">
         <v>838.8947028941458</v>
@@ -6241,37 +6241,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O26" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P26" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q26" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X26" t="n">
-        <v>1536.426713346848</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y26" t="n">
-        <v>1146.287381371036</v>
+        <v>859.3611977507178</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32.45932575975219</v>
+        <v>558.3789402401554</v>
       </c>
       <c r="C27" t="n">
-        <v>32.45932575975219</v>
+        <v>558.3789402401554</v>
       </c>
       <c r="D27" t="n">
-        <v>32.45932575975219</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975219</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975219</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975219</v>
@@ -6308,49 +6308,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321105</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.96628798761</v>
+        <v>1558.354296890829</v>
       </c>
       <c r="S27" t="n">
-        <v>1455.464052945775</v>
+        <v>1390.852061848994</v>
       </c>
       <c r="T27" t="n">
-        <v>1254.561044051269</v>
+        <v>1189.949052954488</v>
       </c>
       <c r="U27" t="n">
-        <v>1026.358376588747</v>
+        <v>961.7463854919661</v>
       </c>
       <c r="V27" t="n">
-        <v>791.2062683570043</v>
+        <v>726.5942772602234</v>
       </c>
       <c r="W27" t="n">
-        <v>536.9689116288027</v>
+        <v>726.5942772602234</v>
       </c>
       <c r="X27" t="n">
-        <v>329.1174114232699</v>
+        <v>726.5942772602234</v>
       </c>
       <c r="Y27" t="n">
-        <v>121.357112658316</v>
+        <v>726.5942772602234</v>
       </c>
     </row>
     <row r="28">
@@ -6411,16 +6411,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W28" t="n">
         <v>32.45932575975219</v>
@@ -6451,7 +6451,7 @@
         <v>442.299297473795</v>
       </c>
       <c r="F29" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975219</v>
@@ -6463,13 +6463,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
         <v>838.8947028941458</v>
@@ -6478,34 +6478,34 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O29" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P29" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S29" t="n">
-        <v>1468.524273203907</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="T29" t="n">
-        <v>1468.524273203907</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="U29" t="n">
-        <v>1214.687390136161</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="V29" t="n">
-        <v>1214.687390136161</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="W29" t="n">
-        <v>1214.687390136161</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="X29" t="n">
-        <v>1214.687390136161</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="Y29" t="n">
         <v>1214.687390136161</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>752.2141233944144</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C30" t="n">
-        <v>752.2141233944144</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D30" t="n">
-        <v>666.272646544556</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E30" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F30" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L30" t="n">
-        <v>534.697260562599</v>
+        <v>256.6067387278475</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668621</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O30" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1601.794698044627</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1601.794698044627</v>
       </c>
       <c r="T30" t="n">
-        <v>1422.063279093103</v>
+        <v>1400.89168915012</v>
       </c>
       <c r="U30" t="n">
-        <v>1422.063279093103</v>
+        <v>1172.689021687598</v>
       </c>
       <c r="V30" t="n">
-        <v>1422.063279093103</v>
+        <v>937.5369134558555</v>
       </c>
       <c r="W30" t="n">
-        <v>1167.825922364901</v>
+        <v>683.2995567276539</v>
       </c>
       <c r="X30" t="n">
-        <v>959.9744221593683</v>
+        <v>683.2995567276539</v>
       </c>
       <c r="Y30" t="n">
-        <v>752.2141233944144</v>
+        <v>683.2995567276539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F31" t="n">
-        <v>1604.663028368529</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G31" t="n">
-        <v>1604.663028368529</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H31" t="n">
-        <v>1443.170888970756</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y31" t="n">
-        <v>1622.966287987609</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>442.299297473795</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C32" t="n">
-        <v>442.299297473795</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D32" t="n">
-        <v>442.299297473795</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E32" t="n">
         <v>442.299297473795</v>
@@ -6697,16 +6697,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.4593257597523</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011317</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M32" t="n">
         <v>838.8947028941458</v>
@@ -6715,7 +6715,7 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
@@ -6724,28 +6724,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="U32" t="n">
-        <v>1369.129404919864</v>
+        <v>1218.226882047851</v>
       </c>
       <c r="V32" t="n">
-        <v>1038.066517576293</v>
+        <v>1218.226882047851</v>
       </c>
       <c r="W32" t="n">
-        <v>685.2978623061788</v>
+        <v>1218.226882047851</v>
       </c>
       <c r="X32" t="n">
-        <v>442.299297473795</v>
+        <v>1218.226882047851</v>
       </c>
       <c r="Y32" t="n">
-        <v>442.299297473795</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>653.4965929484157</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="C33" t="n">
-        <v>479.0435636672887</v>
+        <v>154.6643821421429</v>
       </c>
       <c r="D33" t="n">
-        <v>330.1091540060374</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E33" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
         <v>32.45932575975219</v>
@@ -6782,22 +6782,22 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M33" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.96628798761</v>
@@ -6806,25 +6806,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
-        <v>1622.96628798761</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.96628798761</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U33" t="n">
-        <v>1622.96628798761</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V33" t="n">
-        <v>1491.561085667172</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W33" t="n">
-        <v>1237.32372893897</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X33" t="n">
-        <v>1029.472228733438</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="Y33" t="n">
-        <v>821.7119299684837</v>
+        <v>329.1174114232699</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C34" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D34" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E34" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F34" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
         <v>32.45932575975219</v>
@@ -6888,22 +6888,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>132.1392625228377</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V34" t="n">
-        <v>132.1392625228377</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W34" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X34" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1177.907757870607</v>
+        <v>859.361197750718</v>
       </c>
       <c r="C35" t="n">
-        <v>808.9452409301953</v>
+        <v>859.361197750718</v>
       </c>
       <c r="D35" t="n">
-        <v>450.6795423234448</v>
+        <v>859.361197750718</v>
       </c>
       <c r="E35" t="n">
-        <v>64.89128972520052</v>
+        <v>473.5729451524738</v>
       </c>
       <c r="F35" t="n">
-        <v>64.89128972520052</v>
+        <v>63.73297343843092</v>
       </c>
       <c r="G35" t="n">
-        <v>64.89128972520052</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>64.89128972520052</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
@@ -6943,7 +6943,7 @@
         <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941458</v>
@@ -6952,37 +6952,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V35" t="n">
-        <v>1177.907757870607</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W35" t="n">
-        <v>1177.907757870607</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X35" t="n">
-        <v>1177.907757870607</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y35" t="n">
-        <v>1177.907757870607</v>
+        <v>859.361197750718</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975219</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C36" t="n">
         <v>32.45932575975219</v>
@@ -7019,49 +7019,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>201.1187329501918</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L36" t="n">
-        <v>498.850487931855</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M36" t="n">
-        <v>898.268624536118</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N36" t="n">
-        <v>1299.952780813051</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O36" t="n">
-        <v>1622.966287987609</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1578.043302647803</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894784</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577356</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W36" t="n">
-        <v>455.571351529534</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240011</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904721</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="F37" t="n">
         <v>32.45932575975219</v>
@@ -7128,19 +7128,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W37" t="n">
-        <v>71.82943156598952</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975219</v>
+        <v>1118.831313238366</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975219</v>
+        <v>1118.831313238366</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975219</v>
+        <v>1118.831313238366</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975219</v>
+        <v>852.139269187838</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G38" t="n">
         <v>32.45932575975219</v>
@@ -7174,22 +7174,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
@@ -7201,25 +7201,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381202</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T38" t="n">
-        <v>1311.402045381202</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U38" t="n">
-        <v>1311.402045381202</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V38" t="n">
-        <v>1148.833071266758</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W38" t="n">
-        <v>796.0644159966438</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X38" t="n">
-        <v>422.5986577355639</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.45932575975219</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>989.6600854869342</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C39" t="n">
-        <v>815.2070562058072</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D39" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E39" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
@@ -7256,19 +7256,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L39" t="n">
-        <v>505.9483651585071</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>656.0248753321105</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609044</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P39" t="n">
         <v>1622.96628798761</v>
@@ -7280,25 +7280,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.96628798761</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.96628798761</v>
+        <v>1422.113924883409</v>
       </c>
       <c r="U39" t="n">
-        <v>1622.96628798761</v>
+        <v>1193.911257420887</v>
       </c>
       <c r="V39" t="n">
-        <v>1622.96628798761</v>
+        <v>1193.911257420887</v>
       </c>
       <c r="W39" t="n">
-        <v>1573.487221477489</v>
+        <v>939.6739006926853</v>
       </c>
       <c r="X39" t="n">
-        <v>1365.635721271956</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.875422507002</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C40" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D40" t="n">
-        <v>1588.982053224715</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E40" t="n">
-        <v>1441.068959642322</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L40" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W40" t="n">
-        <v>1622.96628798761</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X40" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y40" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>222.1153555684087</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="C41" t="n">
-        <v>222.1153555684087</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="D41" t="n">
-        <v>222.1153555684087</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="E41" t="n">
-        <v>222.1153555684087</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="F41" t="n">
-        <v>222.1153555684087</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="G41" t="n">
         <v>222.1153555684087</v>
@@ -7414,13 +7414,13 @@
         <v>70.13987180521511</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7429,7 +7429,7 @@
         <v>1396.317581748321</v>
       </c>
       <c r="P41" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q41" t="n">
         <v>1622.96628798761</v>
@@ -7438,25 +7438,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S41" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T41" t="n">
-        <v>1338.489101075414</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U41" t="n">
-        <v>1338.489101075414</v>
+        <v>1408.694499322385</v>
       </c>
       <c r="V41" t="n">
-        <v>1338.489101075414</v>
+        <v>1408.694499322385</v>
       </c>
       <c r="W41" t="n">
-        <v>985.7204458053002</v>
+        <v>1408.694499322385</v>
       </c>
       <c r="X41" t="n">
-        <v>612.2546875442204</v>
+        <v>1408.694499322385</v>
       </c>
       <c r="Y41" t="n">
-        <v>222.1153555684087</v>
+        <v>1018.555167346573</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>815.2070562058072</v>
+        <v>345.324728281709</v>
       </c>
       <c r="C42" t="n">
-        <v>815.2070562058072</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="D42" t="n">
-        <v>666.272646544556</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384406</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384406</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270844</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082808</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.96628798761</v>
@@ -7520,22 +7520,22 @@
         <v>1622.96628798761</v>
       </c>
       <c r="T42" t="n">
-        <v>1422.063279093103</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U42" t="n">
-        <v>1193.860611630581</v>
+        <v>1418.541329232208</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.273893431408</v>
+        <v>1183.389221000465</v>
       </c>
       <c r="W42" t="n">
-        <v>1191.273893431408</v>
+        <v>929.1518642722638</v>
       </c>
       <c r="X42" t="n">
-        <v>983.4223932258753</v>
+        <v>721.3003640667309</v>
       </c>
       <c r="Y42" t="n">
-        <v>983.4223932258753</v>
+        <v>513.5400653017771</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E43" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F43" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G43" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H43" t="n">
-        <v>199.7544622051773</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I43" t="n">
-        <v>50.76258537883311</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J43" t="n">
         <v>32.45932575975219</v>
@@ -7599,22 +7599,22 @@
         <v>361.2466016029502</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029502</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029502</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029502</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029502</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1145.475793905159</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C44" t="n">
-        <v>776.5132769647469</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D44" t="n">
-        <v>418.2475783579964</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E44" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F44" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975219</v>
@@ -7672,28 +7672,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.96628798761</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.96628798761</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.96628798761</v>
+        <v>679.6211872570857</v>
       </c>
       <c r="X44" t="n">
-        <v>1622.96628798761</v>
+        <v>679.6211872570857</v>
       </c>
       <c r="Y44" t="n">
-        <v>1232.826956011798</v>
+        <v>442.299297473795</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32.45932575975219</v>
+        <v>345.324728281709</v>
       </c>
       <c r="C45" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="D45" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E45" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F45" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G45" t="n">
         <v>32.45932575975219</v>
@@ -7730,49 +7730,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
-        <v>505.9483651585072</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M45" t="n">
-        <v>656.0248753321102</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894786</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577358</v>
+        <v>958.7085033988385</v>
       </c>
       <c r="W45" t="n">
-        <v>455.5713515295342</v>
+        <v>704.4711466706369</v>
       </c>
       <c r="X45" t="n">
-        <v>247.7198513240014</v>
+        <v>553.0850270466628</v>
       </c>
       <c r="Y45" t="n">
-        <v>200.6746627798202</v>
+        <v>345.324728281709</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.82943156598964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C46" t="n">
-        <v>71.82943156598964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D46" t="n">
-        <v>71.82943156598964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E46" t="n">
-        <v>71.82943156598964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F46" t="n">
-        <v>71.82943156598964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G46" t="n">
-        <v>71.82943156598964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975219</v>
@@ -7836,22 +7836,22 @@
         <v>361.2466016029502</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029502</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029502</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029502</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="W46" t="n">
-        <v>71.82943156598964</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X46" t="n">
-        <v>71.82943156598964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.82943156598964</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M12" t="n">
-        <v>74.46639351210649</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>364.5878977387108</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>174.1879045256798</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>391.3774455544764</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>213.8448350321619</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719299</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
-        <v>70.10119885733471</v>
+        <v>296.5127271079357</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>364.5878977387109</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>362.3381572675153</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258599</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>296.512727107936</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>174.1879045256798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>351.7205150479951</v>
+        <v>63.84875129258644</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>228.2563757694029</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343852</v>
       </c>
       <c r="P36" t="n">
-        <v>73.77211287831321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.7381345027554</v>
+        <v>145.1148873712468</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,22 +10904,22 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>213.8448350321619</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q39" t="n">
         <v>99.7381345027554</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599045</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344736</v>
       </c>
       <c r="K42" t="n">
         <v>86.93262649026371</v>
       </c>
       <c r="L42" t="n">
-        <v>157.1342855878805</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,13 +11378,13 @@
         <v>97.05174705344736</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026371</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>186.173573874842</v>
       </c>
       <c r="M45" t="n">
-        <v>213.8448350321616</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>128.2815374371747</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23275,7 +23275,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>216.0952451381423</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>70.02661868050427</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>155.1221618043298</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.3046124576955</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>127.0265179935825</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>96.03198987362657</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>54.61374593129918</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>19.57897703914765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>180.4239941641066</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23676,7 +23676,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.74163823402893</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>92.58767712806309</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>6.471573389496427</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
         <v>251.2985142370684</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>179.4386357625234</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>202.5246866117847</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23913,7 +23913,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>66.72592374140291</v>
       </c>
       <c r="U19" t="n">
         <v>286.3046124576955</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>58.49431140418636</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1.134473744809043</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>396.7553339136535</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>119.6509480463677</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>60.14222749351208</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>109.9639304484805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24180,10 +24180,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>118.794905656366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,10 +24223,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>303.1064149097158</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>311.3042502356939</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>78.52437462028918</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>17.45033892610262</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>2.104484466239654</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
@@ -24423,10 +24423,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>213.161238575653</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>325.6600757548191</v>
       </c>
       <c r="G26" t="n">
         <v>414.7135041305339</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>27.18150745134341</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>78.52437462028918</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>16.61771331246264</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24651,19 +24651,19 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>120.7272614763987</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G29" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>155.5510055444784</v>
+        <v>177.634743617766</v>
       </c>
       <c r="T29" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>62.36300348327893</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>59.62371045472233</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
@@ -24815,19 +24815,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>72.91723044926614</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>127.3008210000413</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
         <v>74.67247646141475</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>1.134473744809043</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>183.9786691254446</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>129.1625214944091</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>26.46205974607196</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -25046,16 +25046,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>102.709436852192</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25092,7 +25092,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
-        <v>61.19408060834053</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
         <v>147.5019580580808</v>
@@ -25128,16 +25128,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>383.752592928642</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>155.6518251847761</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -25213,16 +25213,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159.1079591185653</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>84.69968995873758</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>106.2262573958608</v>
       </c>
       <c r="G37" t="n">
         <v>167.7266695472104</v>
@@ -25368,16 +25368,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>186.7332506408622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>117.9052464622388</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
@@ -25450,13 +25450,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>166.8089740968358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25478,19 +25478,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>165.8773520238185</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>202.7107073159002</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>114.9710806029467</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.7266695472104</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25678,22 +25678,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>134.4769792146131</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>39.1694434584962</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25709,25 +25709,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>23.53993162004903</v>
       </c>
       <c r="V42" t="n">
-        <v>230.239736132244</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25803,13 +25803,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>56.55224943852464</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>127.0265179935824</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>296.2561911779077</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>151.2892677705958</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>55.90072677574315</v>
       </c>
       <c r="Y45" t="n">
-        <v>159.107959118565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26040,7 +26040,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>120.9008132556201</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26076,7 +26076,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>127.0265179935824</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>495615.8383346508</v>
+        <v>495615.8383346506</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>495615.8383346508</v>
+        <v>495615.8383346506</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>495615.8383346505</v>
+        <v>495615.8383346506</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>495615.8383346509</v>
+        <v>495615.8383346503</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>495615.8383346507</v>
+        <v>495615.8383346506</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>495615.8383346508</v>
+        <v>495615.8383346507</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>495615.8383346508</v>
+        <v>495615.8383346503</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>495615.8383346504</v>
+        <v>495615.8383346506</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>495615.838334651</v>
+        <v>495615.8383346504</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495615.8383346508</v>
+        <v>495615.8383346504</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>495615.8383346504</v>
+        <v>495615.8383346505</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117841</v>
@@ -26325,13 +26325,13 @@
         <v>277717.5661839885</v>
       </c>
       <c r="F2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="G2" t="n">
         <v>277717.5661839886</v>
       </c>
       <c r="H2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839886</v>
       </c>
       <c r="I2" t="n">
         <v>277717.5661839885</v>
@@ -26340,22 +26340,22 @@
         <v>277717.5661839885</v>
       </c>
       <c r="K2" t="n">
+        <v>277717.5661839884</v>
+      </c>
+      <c r="L2" t="n">
+        <v>277717.5661839884</v>
+      </c>
+      <c r="M2" t="n">
+        <v>277717.5661839884</v>
+      </c>
+      <c r="N2" t="n">
         <v>277717.5661839885</v>
-      </c>
-      <c r="L2" t="n">
-        <v>277717.5661839886</v>
-      </c>
-      <c r="M2" t="n">
-        <v>277717.5661839886</v>
-      </c>
-      <c r="N2" t="n">
-        <v>277717.5661839886</v>
       </c>
       <c r="O2" t="n">
         <v>277717.5661839886</v>
       </c>
       <c r="P2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>25938.22349556464</v>
       </c>
       <c r="O4" t="n">
-        <v>25938.22349556463</v>
+        <v>25938.22349556464</v>
       </c>
       <c r="P4" t="n">
         <v>25938.22349556464</v>
@@ -26478,31 +26478,31 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375758</v>
       </c>
       <c r="I5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="K5" t="n">
         <v>27864.35291375758</v>
-      </c>
-      <c r="J5" t="n">
-        <v>27864.35291375758</v>
-      </c>
-      <c r="K5" t="n">
-        <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
         <v>27864.35291375758</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375758</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100398.654269396</v>
+        <v>100398.6542693962</v>
       </c>
       <c r="C6" t="n">
         <v>181168.0858009437</v>
@@ -26530,40 +26530,40 @@
         <v>181168.0858009438</v>
       </c>
       <c r="E6" t="n">
-        <v>56974.81964941957</v>
+        <v>47130.22025604278</v>
       </c>
       <c r="F6" t="n">
-        <v>223914.9897746664</v>
+        <v>214070.3903812895</v>
       </c>
       <c r="G6" t="n">
-        <v>223914.9897746664</v>
+        <v>214070.3903812896</v>
       </c>
       <c r="H6" t="n">
-        <v>223914.9897746662</v>
+        <v>214070.3903812897</v>
       </c>
       <c r="I6" t="n">
-        <v>223914.9897746663</v>
+        <v>214070.3903812896</v>
       </c>
       <c r="J6" t="n">
-        <v>160855.04717556</v>
+        <v>151010.4477821833</v>
       </c>
       <c r="K6" t="n">
-        <v>223914.9897746663</v>
+        <v>214070.3903812894</v>
       </c>
       <c r="L6" t="n">
-        <v>223914.9897746663</v>
+        <v>214070.3903812894</v>
       </c>
       <c r="M6" t="n">
-        <v>182864.2919122185</v>
+        <v>173019.6925188415</v>
       </c>
       <c r="N6" t="n">
-        <v>223914.9897746663</v>
+        <v>214070.3903812895</v>
       </c>
       <c r="O6" t="n">
-        <v>223914.9897746664</v>
+        <v>214070.3903812896</v>
       </c>
       <c r="P6" t="n">
-        <v>223914.9897746663</v>
+        <v>214070.3903812896</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="G3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
         <v>146.5718044195371</v>
@@ -26810,19 +26810,19 @@
         <v>405.7415719969024</v>
       </c>
       <c r="I4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="J4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="K4" t="n">
         <v>405.7415719969024</v>
-      </c>
-      <c r="J4" t="n">
-        <v>405.7415719969024</v>
-      </c>
-      <c r="K4" t="n">
-        <v>405.7415719969023</v>
       </c>
       <c r="L4" t="n">
         <v>405.7415719969024</v>
       </c>
       <c r="M4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="N4" t="n">
         <v>405.7415719969024</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.6179384914298</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27399,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>169.6144862178345</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>209.981932719112</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>165.0118248850729</v>
       </c>
     </row>
     <row r="4">
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27587,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.5765286314975</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27675,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>92.09318042088802</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>50.16819585324223</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>127.8627523801188</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27852,31 +27852,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27937,25 +27937,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>61.79480040250768</v>
+        <v>135.2824001653318</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31934,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31943,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044663</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118892</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I17" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044663</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M18" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M19" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118892</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>315.2420482051334</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>124.8420549921024</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714792</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>329.1250450411058</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714792</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
         <v>177.5326105223149</v>
@@ -36208,13 +36208,13 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>151.5924345187913</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969024</v>
       </c>
       <c r="O21" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="P21" t="n">
         <v>244.690655761624</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>226.411528250601</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>315.2420482051336</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36457,7 +36457,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>300.0857567541447</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969024</v>
+        <v>14.50290175900862</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36694,7 +36694,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506013</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>124.8420549921024</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37150,7 +37150,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37159,7 +37159,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>302.3746655144178</v>
+        <v>14.50290175900908</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37168,7 +37168,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>141.3237492791391</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37396,16 +37396,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O36" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>151.5924345187913</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
         <v>405.7415719969024</v>
@@ -37639,7 +37639,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.690655761624</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>38.06115762167971</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209099</v>
@@ -37800,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680309</v>
+        <v>53.63987744680288</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696148</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>87.03308673054579</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
@@ -37876,10 +37876,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.690655761624</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461245</v>
+        <v>116.0723750175073</v>
       </c>
       <c r="M45" t="n">
-        <v>151.592434518791</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969024</v>
@@ -38116,7 +38116,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
